--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Sema5a-Met.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Sema5a-Met.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Sema5a</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.4898806666666667</v>
+        <v>0.2075446666666666</v>
       </c>
       <c r="H2">
-        <v>1.469642</v>
+        <v>0.6226339999999999</v>
       </c>
       <c r="I2">
-        <v>0.01965582386814743</v>
+        <v>0.01336584681749163</v>
       </c>
       <c r="J2">
-        <v>0.0231944974426651</v>
+        <v>0.01405330443738086</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.500998666666666</v>
+        <v>2.912114666666667</v>
       </c>
       <c r="N2">
-        <v>7.502996</v>
+        <v>8.736344000000001</v>
       </c>
       <c r="O2">
-        <v>0.08179813614512803</v>
+        <v>0.04564398277650125</v>
       </c>
       <c r="P2">
-        <v>0.1013554923061644</v>
+        <v>0.06163513710720567</v>
       </c>
       <c r="Q2">
-        <v>1.225190894159111</v>
+        <v>0.6043938677884444</v>
       </c>
       <c r="R2">
-        <v>11.026718047432</v>
+        <v>5.439544810096</v>
       </c>
       <c r="S2">
-        <v>0.00160780975681138</v>
+        <v>0.0006100704819309421</v>
       </c>
       <c r="T2">
-        <v>0.002350889707095391</v>
+        <v>0.000866177345807271</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.4898806666666667</v>
+        <v>0.2075446666666666</v>
       </c>
       <c r="H3">
-        <v>1.469642</v>
+        <v>0.6226339999999999</v>
       </c>
       <c r="I3">
-        <v>0.01965582386814743</v>
+        <v>0.01336584681749163</v>
       </c>
       <c r="J3">
-        <v>0.0231944974426651</v>
+        <v>0.01405330443738086</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>2.586944</v>
       </c>
       <c r="O3">
-        <v>0.02820302683245761</v>
+        <v>0.01351577128599483</v>
       </c>
       <c r="P3">
-        <v>0.03494617119461054</v>
+        <v>0.01825095808139687</v>
       </c>
       <c r="Q3">
-        <v>0.4224312837831111</v>
+        <v>0.1789688100551111</v>
       </c>
       <c r="R3">
-        <v>3.801881554048</v>
+        <v>1.610719290496</v>
       </c>
       <c r="S3">
-        <v>0.0005543537279674226</v>
+        <v>0.0001806497286288588</v>
       </c>
       <c r="T3">
-        <v>0.0008105588784043309</v>
+        <v>0.0002564862701917466</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.4898806666666667</v>
+        <v>0.2075446666666666</v>
       </c>
       <c r="H4">
-        <v>1.469642</v>
+        <v>0.6226339999999999</v>
       </c>
       <c r="I4">
-        <v>0.01965582386814743</v>
+        <v>0.01336584681749163</v>
       </c>
       <c r="J4">
-        <v>0.0231944974426651</v>
+        <v>0.01405330443738086</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.273522333333333</v>
+        <v>7.668087</v>
       </c>
       <c r="N4">
-        <v>12.820567</v>
+        <v>23.004261</v>
       </c>
       <c r="O4">
-        <v>0.1397706309484552</v>
+        <v>0.12018827244785</v>
       </c>
       <c r="P4">
-        <v>0.1731888008375807</v>
+        <v>0.1622956674765719</v>
       </c>
       <c r="Q4">
-        <v>2.093515969668222</v>
+        <v>1.591470560386</v>
       </c>
       <c r="R4">
-        <v>18.841643727014</v>
+        <v>14.323235043474</v>
       </c>
       <c r="S4">
-        <v>0.002747306903862672</v>
+        <v>0.001606418038796912</v>
       </c>
       <c r="T4">
-        <v>0.004017027198125501</v>
+        <v>0.002280790423916196</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.4898806666666667</v>
+        <v>0.2075446666666666</v>
       </c>
       <c r="H5">
-        <v>1.469642</v>
+        <v>0.6226339999999999</v>
       </c>
       <c r="I5">
-        <v>0.01965582386814743</v>
+        <v>0.01336584681749163</v>
       </c>
       <c r="J5">
-        <v>0.0231944974426651</v>
+        <v>0.01405330443738086</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.6992215</v>
+        <v>49.6589625</v>
       </c>
       <c r="N5">
-        <v>35.398443</v>
+        <v>99.317925</v>
       </c>
       <c r="O5">
-        <v>0.5788740910643337</v>
+        <v>0.7783460091712006</v>
       </c>
       <c r="P5">
-        <v>0.4781858629721645</v>
+        <v>0.7006905777265834</v>
       </c>
       <c r="Q5">
-        <v>8.670506427901</v>
+        <v>10.306452819075</v>
       </c>
       <c r="R5">
-        <v>52.023038567406</v>
+        <v>61.83871691444999</v>
       </c>
       <c r="S5">
-        <v>0.01137824717579448</v>
+        <v>0.0104032535295882</v>
       </c>
       <c r="T5">
-        <v>0.01109128077582647</v>
+        <v>0.009847018005195952</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,31 +773,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.4898806666666667</v>
+        <v>0.2075446666666666</v>
       </c>
       <c r="H6">
-        <v>1.469642</v>
+        <v>0.6226339999999999</v>
       </c>
       <c r="I6">
-        <v>0.01965582386814743</v>
+        <v>0.01336584681749163</v>
       </c>
       <c r="J6">
-        <v>0.0231944974426651</v>
+        <v>0.01405330443738086</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.239195333333334</v>
+        <v>2.699147</v>
       </c>
       <c r="N6">
-        <v>15.717586</v>
+        <v>8.097441</v>
       </c>
       <c r="O6">
-        <v>0.1713541150096253</v>
+        <v>0.04230596431845346</v>
       </c>
       <c r="P6">
-        <v>0.2123236726894799</v>
+        <v>0.05712765960824214</v>
       </c>
       <c r="Q6">
-        <v>2.566580502690222</v>
+        <v>0.5601935643993332</v>
       </c>
       <c r="R6">
-        <v>23.099224524212</v>
+        <v>5.041742079593999</v>
       </c>
       <c r="S6">
-        <v>0.003368106303711473</v>
+        <v>0.0005654550385467157</v>
       </c>
       <c r="T6">
-        <v>0.004924740883213403</v>
+        <v>0.0008028323922696925</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>39.077793</v>
       </c>
       <c r="I7">
-        <v>0.5226485200912362</v>
+        <v>0.8388680913725347</v>
       </c>
       <c r="J7">
-        <v>0.6167418798615554</v>
+        <v>0.8820143483490313</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.500998666666666</v>
+        <v>2.912114666666667</v>
       </c>
       <c r="N7">
-        <v>7.502996</v>
+        <v>8.736344000000001</v>
       </c>
       <c r="O7">
-        <v>0.08179813614512803</v>
+        <v>0.04564398277650125</v>
       </c>
       <c r="P7">
-        <v>0.1013554923061644</v>
+        <v>0.06163513710720567</v>
       </c>
       <c r="Q7">
-        <v>32.57783606309199</v>
+        <v>37.93300471208801</v>
       </c>
       <c r="R7">
-        <v>293.200524567828</v>
+        <v>341.397042408792</v>
       </c>
       <c r="S7">
-        <v>0.04275167480247262</v>
+        <v>0.03828928071436445</v>
       </c>
       <c r="T7">
-        <v>0.06251017685919723</v>
+        <v>0.05436307529101521</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>39.077793</v>
       </c>
       <c r="I8">
-        <v>0.5226485200912362</v>
+        <v>0.8388680913725347</v>
       </c>
       <c r="J8">
-        <v>0.6167418798615554</v>
+        <v>0.8820143483490313</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>2.586944</v>
       </c>
       <c r="O8">
-        <v>0.02820302683245761</v>
+        <v>0.01351577128599483</v>
       </c>
       <c r="P8">
-        <v>0.03494617119461054</v>
+        <v>0.01825095808139687</v>
       </c>
       <c r="Q8">
         <v>11.232451348288</v>
@@ -948,10 +948,10 @@
         <v>101.092062134592</v>
       </c>
       <c r="S8">
-        <v>0.01474027023607739</v>
+        <v>0.01133794926211019</v>
       </c>
       <c r="T8">
-        <v>0.02155276731652784</v>
+        <v>0.01609760689890875</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>39.077793</v>
       </c>
       <c r="I9">
-        <v>0.5226485200912362</v>
+        <v>0.8388680913725347</v>
       </c>
       <c r="J9">
-        <v>0.6167418798615554</v>
+        <v>0.8820143483490313</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.273522333333333</v>
+        <v>7.668087</v>
       </c>
       <c r="N9">
-        <v>12.820567</v>
+        <v>23.004261</v>
       </c>
       <c r="O9">
-        <v>0.1397706309484552</v>
+        <v>0.12018827244785</v>
       </c>
       <c r="P9">
-        <v>0.1731888008375807</v>
+        <v>0.1622956674765719</v>
       </c>
       <c r="Q9">
-        <v>55.666607040959</v>
+        <v>99.883972163997</v>
       </c>
       <c r="R9">
-        <v>500.9994633686309</v>
+        <v>898.955749475973</v>
       </c>
       <c r="S9">
-        <v>0.07305091341742846</v>
+        <v>0.1008221067136901</v>
       </c>
       <c r="T9">
-        <v>0.1068127865995381</v>
+        <v>0.1431471073892197</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,10 +1021,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1042,10 +1042,10 @@
         <v>39.077793</v>
       </c>
       <c r="I10">
-        <v>0.5226485200912362</v>
+        <v>0.8388680913725347</v>
       </c>
       <c r="J10">
-        <v>0.6167418798615554</v>
+        <v>0.8820143483490313</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>17.6992215</v>
+        <v>49.6589625</v>
       </c>
       <c r="N10">
-        <v>35.398443</v>
+        <v>99.317925</v>
       </c>
       <c r="O10">
-        <v>0.5788740910643337</v>
+        <v>0.7783460091712006</v>
       </c>
       <c r="P10">
-        <v>0.4781858629721645</v>
+        <v>0.7006905777265834</v>
       </c>
       <c r="Q10">
-        <v>230.5488380127165</v>
+        <v>646.8542190565876</v>
       </c>
       <c r="R10">
-        <v>1383.293028076299</v>
+        <v>3881.125314339525</v>
       </c>
       <c r="S10">
-        <v>0.3025476870139335</v>
+        <v>0.6529296311408744</v>
       </c>
       <c r="T10">
-        <v>0.2949172480526729</v>
+        <v>0.6180191433078187</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,10 +1104,10 @@
         <v>39.077793</v>
       </c>
       <c r="I11">
-        <v>0.5226485200912362</v>
+        <v>0.8388680913725347</v>
       </c>
       <c r="J11">
-        <v>0.6167418798615554</v>
+        <v>0.8820143483490313</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.239195333333334</v>
+        <v>2.699147</v>
       </c>
       <c r="N11">
-        <v>15.717586</v>
+        <v>8.097441</v>
       </c>
       <c r="O11">
-        <v>0.1713541150096253</v>
+        <v>0.04230596431845346</v>
       </c>
       <c r="P11">
-        <v>0.2123236726894799</v>
+        <v>0.05712765960824214</v>
       </c>
       <c r="Q11">
-        <v>68.24539690752201</v>
+        <v>35.158902580857</v>
       </c>
       <c r="R11">
-        <v>614.208572167698</v>
+        <v>316.430123227713</v>
       </c>
       <c r="S11">
-        <v>0.08955797462132414</v>
+        <v>0.03548912354149561</v>
       </c>
       <c r="T11">
-        <v>0.1309489010336194</v>
+        <v>0.05038741546206896</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>11.4071155</v>
+        <v>2.2787875</v>
       </c>
       <c r="H12">
-        <v>22.814231</v>
+        <v>4.557575</v>
       </c>
       <c r="I12">
-        <v>0.4576956560406163</v>
+        <v>0.146753588727638</v>
       </c>
       <c r="J12">
-        <v>0.3600636226957795</v>
+        <v>0.1028677986926446</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.500998666666666</v>
+        <v>2.912114666666667</v>
       </c>
       <c r="N12">
-        <v>7.502996</v>
+        <v>8.736344000000001</v>
       </c>
       <c r="O12">
-        <v>0.08179813614512803</v>
+        <v>0.04564398277650125</v>
       </c>
       <c r="P12">
-        <v>0.1013554923061644</v>
+        <v>0.06163513710720567</v>
       </c>
       <c r="Q12">
-        <v>28.52918065601266</v>
+        <v>6.636090500966668</v>
       </c>
       <c r="R12">
-        <v>171.175083936076</v>
+        <v>39.8165430058</v>
       </c>
       <c r="S12">
-        <v>0.03743865158584402</v>
+        <v>0.006698418276274056</v>
       </c>
       <c r="T12">
-        <v>0.03649442573987175</v>
+        <v>0.006340270876337582</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>11.4071155</v>
+        <v>2.2787875</v>
       </c>
       <c r="H13">
-        <v>22.814231</v>
+        <v>4.557575</v>
       </c>
       <c r="I13">
-        <v>0.4576956560406163</v>
+        <v>0.146753588727638</v>
       </c>
       <c r="J13">
-        <v>0.3600636226957795</v>
+        <v>0.1028677986926446</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>2.586944</v>
       </c>
       <c r="O13">
-        <v>0.02820302683245761</v>
+        <v>0.01351577128599483</v>
       </c>
       <c r="P13">
-        <v>0.03494617119461054</v>
+        <v>0.01825095808139687</v>
       </c>
       <c r="Q13">
-        <v>9.836523000010667</v>
+        <v>1.965031883466667</v>
       </c>
       <c r="R13">
-        <v>59.019138000064</v>
+        <v>11.7901913008</v>
       </c>
       <c r="S13">
-        <v>0.01290840286841279</v>
+        <v>0.001983487940641704</v>
       </c>
       <c r="T13">
-        <v>0.01258284499967837</v>
+        <v>0.001877435881865028</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,13 +1269,13 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>11.4071155</v>
+        <v>2.2787875</v>
       </c>
       <c r="H14">
-        <v>22.814231</v>
+        <v>4.557575</v>
       </c>
       <c r="I14">
-        <v>0.4576956560406163</v>
+        <v>0.146753588727638</v>
       </c>
       <c r="J14">
-        <v>0.3600636226957795</v>
+        <v>0.1028677986926446</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.273522333333333</v>
+        <v>7.668087</v>
       </c>
       <c r="N14">
-        <v>12.820567</v>
+        <v>23.004261</v>
       </c>
       <c r="O14">
-        <v>0.1397706309484552</v>
+        <v>0.12018827244785</v>
       </c>
       <c r="P14">
-        <v>0.1731888008375807</v>
+        <v>0.1622956674765719</v>
       </c>
       <c r="Q14">
-        <v>48.74856284816283</v>
+        <v>17.4739408045125</v>
       </c>
       <c r="R14">
-        <v>292.4913770889769</v>
+        <v>104.843644827075</v>
       </c>
       <c r="S14">
-        <v>0.06397241062716409</v>
+        <v>0.01763806030469707</v>
       </c>
       <c r="T14">
-        <v>0.06235898703991717</v>
+        <v>0.01669499805066839</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,10 +1331,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>22</v>
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>11.4071155</v>
+        <v>2.2787875</v>
       </c>
       <c r="H15">
-        <v>22.814231</v>
+        <v>4.557575</v>
       </c>
       <c r="I15">
-        <v>0.4576956560406163</v>
+        <v>0.146753588727638</v>
       </c>
       <c r="J15">
-        <v>0.3600636226957795</v>
+        <v>0.1028677986926446</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>17.6992215</v>
+        <v>49.6589625</v>
       </c>
       <c r="N15">
-        <v>35.398443</v>
+        <v>99.317925</v>
       </c>
       <c r="O15">
-        <v>0.5788740910643337</v>
+        <v>0.7783460091712006</v>
       </c>
       <c r="P15">
-        <v>0.4781858629721645</v>
+        <v>0.7006905777265834</v>
       </c>
       <c r="Q15">
-        <v>201.8970639105833</v>
+        <v>113.1622230079687</v>
       </c>
       <c r="R15">
-        <v>807.588255642333</v>
+        <v>452.648892031875</v>
       </c>
       <c r="S15">
-        <v>0.2649481568746057</v>
+        <v>0.1142250701177087</v>
       </c>
       <c r="T15">
-        <v>0.1721773341436652</v>
+        <v>0.07207849729541102</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,13 +1393,13 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>11.4071155</v>
+        <v>2.2787875</v>
       </c>
       <c r="H16">
-        <v>22.814231</v>
+        <v>4.557575</v>
       </c>
       <c r="I16">
-        <v>0.4576956560406163</v>
+        <v>0.146753588727638</v>
       </c>
       <c r="J16">
-        <v>0.3600636226957795</v>
+        <v>0.1028677986926446</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,338 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.239195333333334</v>
+        <v>2.699147</v>
       </c>
       <c r="N16">
-        <v>15.717586</v>
+        <v>8.097441</v>
       </c>
       <c r="O16">
-        <v>0.1713541150096253</v>
+        <v>0.04230596431845346</v>
       </c>
       <c r="P16">
-        <v>0.2123236726894799</v>
+        <v>0.05712765960824214</v>
       </c>
       <c r="Q16">
-        <v>59.76410629439434</v>
+        <v>6.1507824442625</v>
       </c>
       <c r="R16">
-        <v>358.584637766366</v>
+        <v>36.904694665575</v>
       </c>
       <c r="S16">
-        <v>0.07842803408458968</v>
+        <v>0.006208552088316445</v>
       </c>
       <c r="T16">
-        <v>0.07645003077264707</v>
+        <v>0.005876596588362576</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.01572166666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.047165</v>
+      </c>
+      <c r="I17">
+        <v>0.001012473082335678</v>
+      </c>
+      <c r="J17">
+        <v>0.001064548520943392</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>2.912114666666667</v>
+      </c>
+      <c r="N17">
+        <v>8.736344000000001</v>
+      </c>
+      <c r="O17">
+        <v>0.04564398277650125</v>
+      </c>
+      <c r="P17">
+        <v>0.06163513710720567</v>
+      </c>
+      <c r="Q17">
+        <v>0.04578329608444445</v>
+      </c>
+      <c r="R17">
+        <v>0.41204966476</v>
+      </c>
+      <c r="S17">
+        <v>4.621330393180084E-05</v>
+      </c>
+      <c r="T17">
+        <v>6.561359404561901E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.01572166666666667</v>
+      </c>
+      <c r="H18">
+        <v>0.047165</v>
+      </c>
+      <c r="I18">
+        <v>0.001012473082335678</v>
+      </c>
+      <c r="J18">
+        <v>0.001064548520943392</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.8623146666666667</v>
+      </c>
+      <c r="N18">
+        <v>2.586944</v>
+      </c>
+      <c r="O18">
+        <v>0.01351577128599483</v>
+      </c>
+      <c r="P18">
+        <v>0.01825095808139687</v>
+      </c>
+      <c r="Q18">
+        <v>0.01355702375111111</v>
+      </c>
+      <c r="R18">
+        <v>0.12201321376</v>
+      </c>
+      <c r="S18">
+        <v>1.368435461407524E-05</v>
+      </c>
+      <c r="T18">
+        <v>1.942903043135089E-05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.01572166666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.047165</v>
+      </c>
+      <c r="I19">
+        <v>0.001012473082335678</v>
+      </c>
+      <c r="J19">
+        <v>0.001064548520943392</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>7.668087</v>
+      </c>
+      <c r="N19">
+        <v>23.004261</v>
+      </c>
+      <c r="O19">
+        <v>0.12018827244785</v>
+      </c>
+      <c r="P19">
+        <v>0.1622956674765719</v>
+      </c>
+      <c r="Q19">
+        <v>0.120555107785</v>
+      </c>
+      <c r="R19">
+        <v>1.084995970065</v>
+      </c>
+      <c r="S19">
+        <v>0.0001216873906658749</v>
+      </c>
+      <c r="T19">
+        <v>0.0001727716127677053</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.01572166666666667</v>
+      </c>
+      <c r="H20">
+        <v>0.047165</v>
+      </c>
+      <c r="I20">
+        <v>0.001012473082335678</v>
+      </c>
+      <c r="J20">
+        <v>0.001064548520943392</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>49.6589625</v>
+      </c>
+      <c r="N20">
+        <v>99.317925</v>
+      </c>
+      <c r="O20">
+        <v>0.7783460091712006</v>
+      </c>
+      <c r="P20">
+        <v>0.7006905777265834</v>
+      </c>
+      <c r="Q20">
+        <v>0.7807216554374999</v>
+      </c>
+      <c r="R20">
+        <v>4.684329932625</v>
+      </c>
+      <c r="S20">
+        <v>0.0007880543830292397</v>
+      </c>
+      <c r="T20">
+        <v>0.0007459191181578054</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.01572166666666667</v>
+      </c>
+      <c r="H21">
+        <v>0.047165</v>
+      </c>
+      <c r="I21">
+        <v>0.001012473082335678</v>
+      </c>
+      <c r="J21">
+        <v>0.001064548520943392</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>2.699147</v>
+      </c>
+      <c r="N21">
+        <v>8.097441</v>
+      </c>
+      <c r="O21">
+        <v>0.04230596431845346</v>
+      </c>
+      <c r="P21">
+        <v>0.05712765960824214</v>
+      </c>
+      <c r="Q21">
+        <v>0.04243508941833333</v>
+      </c>
+      <c r="R21">
+        <v>0.381915804765</v>
+      </c>
+      <c r="S21">
+        <v>4.283365009468781E-05</v>
+      </c>
+      <c r="T21">
+        <v>6.081516554091175E-05</v>
       </c>
     </row>
   </sheetData>
